--- a/Code/Results/Cases/Case_5_127/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_127/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.139162226358138</v>
+        <v>1.165568306009135</v>
       </c>
       <c r="C2">
-        <v>0.0683990390151088</v>
+        <v>0.03342341788579262</v>
       </c>
       <c r="D2">
-        <v>0.4474298933270404</v>
+        <v>0.3090660498763214</v>
       </c>
       <c r="E2">
-        <v>0.06993801069858208</v>
+        <v>0.08600710581192672</v>
       </c>
       <c r="F2">
-        <v>6.936454089477394</v>
+        <v>4.618477121752392</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8564354838279655</v>
+        <v>0.6763136704454951</v>
       </c>
       <c r="L2">
-        <v>0.2429257196444325</v>
+        <v>0.2225196855929852</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9994847851962163</v>
+        <v>1.145630774578677</v>
       </c>
       <c r="C3">
-        <v>0.06181711267439738</v>
+        <v>0.03160631916440337</v>
       </c>
       <c r="D3">
-        <v>0.4097053872139753</v>
+        <v>0.2967283011830375</v>
       </c>
       <c r="E3">
-        <v>0.06401161010981582</v>
+        <v>0.08467592048555517</v>
       </c>
       <c r="F3">
-        <v>6.218941232599235</v>
+        <v>4.405935134467342</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7399788302272157</v>
+        <v>0.6589400703129229</v>
       </c>
       <c r="L3">
-        <v>0.2147322958558249</v>
+        <v>0.2168610581896928</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9164131117155705</v>
+        <v>1.134448267733831</v>
       </c>
       <c r="C4">
-        <v>0.05785589861354268</v>
+        <v>0.03046620734694017</v>
       </c>
       <c r="D4">
-        <v>0.3868202614530958</v>
+        <v>0.2890757357962741</v>
       </c>
       <c r="E4">
-        <v>0.06045964405647553</v>
+        <v>0.08388671296325256</v>
       </c>
       <c r="F4">
-        <v>5.785456734534591</v>
+        <v>4.275682007018474</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6706712186431645</v>
+        <v>0.6490472067143571</v>
       </c>
       <c r="L4">
-        <v>0.1978693482171394</v>
+        <v>0.2135342625221028</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8831665899367067</v>
+        <v>1.130157057674609</v>
       </c>
       <c r="C5">
-        <v>0.0562568613332104</v>
+        <v>0.02999531420353563</v>
       </c>
       <c r="D5">
-        <v>0.3775496167979639</v>
+        <v>0.2859374313796224</v>
       </c>
       <c r="E5">
-        <v>0.05903183328424078</v>
+        <v>0.08357216748358098</v>
       </c>
       <c r="F5">
-        <v>5.610325781569003</v>
+        <v>4.222660805723109</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6429170679722489</v>
+        <v>0.6452098223986411</v>
       </c>
       <c r="L5">
-        <v>0.1910980412506973</v>
+        <v>0.2122155782463437</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8776806721883474</v>
+        <v>1.129460539229825</v>
       </c>
       <c r="C6">
-        <v>0.05599212391084762</v>
+        <v>0.02991673854396737</v>
       </c>
       <c r="D6">
-        <v>0.3760131638675119</v>
+        <v>0.2854151087297083</v>
       </c>
       <c r="E6">
-        <v>0.05879587202057834</v>
+        <v>0.08352036362286341</v>
       </c>
       <c r="F6">
-        <v>5.58132987016316</v>
+        <v>4.213860048901353</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6383363209709643</v>
+        <v>0.644584325718327</v>
       </c>
       <c r="L6">
-        <v>0.1899794041774925</v>
+        <v>0.2119988440226308</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9159623733717694</v>
+        <v>1.134389319739768</v>
       </c>
       <c r="C7">
-        <v>0.05783427814015596</v>
+        <v>0.03045988237587594</v>
       </c>
       <c r="D7">
-        <v>0.3866950291482425</v>
+        <v>0.2890334923379498</v>
       </c>
       <c r="E7">
-        <v>0.06044031133599859</v>
+        <v>0.08388244231321096</v>
       </c>
       <c r="F7">
-        <v>5.783089041445237</v>
+        <v>4.274966715616387</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6702950149148705</v>
+        <v>0.6489946697318487</v>
       </c>
       <c r="L7">
-        <v>0.1977776364611685</v>
+        <v>0.2135163285660582</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.090398290041833</v>
+        <v>1.158473629041367</v>
       </c>
       <c r="C8">
-        <v>0.06610982356547623</v>
+        <v>0.03280185618523035</v>
       </c>
       <c r="D8">
-        <v>0.4343555956002234</v>
+        <v>0.3048277452171249</v>
       </c>
       <c r="E8">
-        <v>0.06787517369973983</v>
+        <v>0.08554226210956983</v>
       </c>
       <c r="F8">
-        <v>6.68742382276136</v>
+        <v>4.545138293844104</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8157852447381799</v>
+        <v>0.6701620266318002</v>
       </c>
       <c r="L8">
-        <v>0.2331039970169257</v>
+        <v>0.2205378824118043</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.457390992941384</v>
+        <v>1.214139903148236</v>
       </c>
       <c r="C9">
-        <v>0.08322608190853487</v>
+        <v>0.03720773664953114</v>
       </c>
       <c r="D9">
-        <v>0.5307568519790209</v>
+        <v>0.3352084593897473</v>
       </c>
       <c r="E9">
-        <v>0.08325461004018919</v>
+        <v>0.08902139005115473</v>
       </c>
       <c r="F9">
-        <v>8.530033960140997</v>
+        <v>5.077144509861711</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.121723485450218</v>
+        <v>0.7178550510727177</v>
       </c>
       <c r="L9">
-        <v>0.3065451606479144</v>
+        <v>0.2354845402658015</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.747868994456212</v>
+        <v>1.260234718278099</v>
       </c>
       <c r="C10">
-        <v>0.09674623753134881</v>
+        <v>0.04034064433398754</v>
       </c>
       <c r="D10">
-        <v>0.6045268705297815</v>
+        <v>0.3571981080036437</v>
       </c>
       <c r="E10">
-        <v>0.09521480047719777</v>
+        <v>0.09171581356577363</v>
       </c>
       <c r="F10">
-        <v>9.946610452775246</v>
+        <v>5.469705866913358</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.364143521164863</v>
+        <v>0.7567237436144296</v>
       </c>
       <c r="L10">
-        <v>0.3640074631853736</v>
+        <v>0.2471937039239975</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.88602450046946</v>
+        <v>1.282345237154004</v>
       </c>
       <c r="C11">
-        <v>0.1032098443277576</v>
+        <v>0.04174540326101095</v>
       </c>
       <c r="D11">
-        <v>0.6390248907437126</v>
+        <v>0.3671363910969774</v>
       </c>
       <c r="E11">
-        <v>0.1008442158637592</v>
+        <v>0.09297198724315336</v>
       </c>
       <c r="F11">
-        <v>10.61004339688503</v>
+        <v>5.648740027691247</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.479592033551967</v>
+        <v>0.7752508165879419</v>
       </c>
       <c r="L11">
-        <v>0.3911613371024174</v>
+        <v>0.2526808745670763</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.939350400181354</v>
+        <v>1.290882992621363</v>
       </c>
       <c r="C12">
-        <v>0.1057132204710598</v>
+        <v>0.0422745836958569</v>
       </c>
       <c r="D12">
-        <v>0.6522524612864515</v>
+        <v>0.3708909178180591</v>
       </c>
       <c r="E12">
-        <v>0.103007393767264</v>
+        <v>0.09345207302565939</v>
       </c>
       <c r="F12">
-        <v>10.8645229582873</v>
+        <v>5.716606895914424</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.524183702346448</v>
+        <v>0.7823891224853696</v>
       </c>
       <c r="L12">
-        <v>0.401614086660004</v>
+        <v>0.2547819814463139</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.927818291912843</v>
+        <v>1.289036883633571</v>
       </c>
       <c r="C13">
-        <v>0.1051714051233859</v>
+        <v>0.04216073583783242</v>
       </c>
       <c r="D13">
-        <v>0.6493958749292972</v>
+        <v>0.3700827013003334</v>
       </c>
       <c r="E13">
-        <v>0.1025400413183455</v>
+        <v>0.09334848195982204</v>
       </c>
       <c r="F13">
-        <v>10.80956260036902</v>
+        <v>5.701987335881938</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.514538939797944</v>
+        <v>0.7808462972135715</v>
       </c>
       <c r="L13">
-        <v>0.3993549063455077</v>
+        <v>0.2543284348853661</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.890390521515002</v>
+        <v>1.28304433229286</v>
       </c>
       <c r="C14">
-        <v>0.1034146138292371</v>
+        <v>0.04178899384586998</v>
       </c>
       <c r="D14">
-        <v>0.6401096664105239</v>
+        <v>0.3674454537594727</v>
       </c>
       <c r="E14">
-        <v>0.1010215248811512</v>
+        <v>0.09301139589445029</v>
       </c>
       <c r="F14">
-        <v>10.63091119486756</v>
+        <v>5.654322033977508</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.483242288234095</v>
+        <v>0.7758356287605181</v>
       </c>
       <c r="L14">
-        <v>0.3920177287354676</v>
+        <v>0.2528532674357393</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.867601031560469</v>
+        <v>1.279395231182804</v>
       </c>
       <c r="C15">
-        <v>0.1023461355359458</v>
+        <v>0.04156093514963999</v>
       </c>
       <c r="D15">
-        <v>0.6344438657787634</v>
+        <v>0.3658289197511522</v>
       </c>
       <c r="E15">
-        <v>0.1000956222422218</v>
+        <v>0.09280549453926668</v>
       </c>
       <c r="F15">
-        <v>10.52192209611695</v>
+        <v>5.625134991443588</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.464190181593239</v>
+        <v>0.7727824312117662</v>
       </c>
       <c r="L15">
-        <v>0.3875464384522189</v>
+        <v>0.2519527147599518</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.738973129000328</v>
+        <v>1.258812786652101</v>
       </c>
       <c r="C16">
-        <v>0.09633100584969156</v>
+        <v>0.04024844323768662</v>
       </c>
       <c r="D16">
-        <v>0.6022936247504447</v>
+        <v>0.3565473498900076</v>
       </c>
       <c r="E16">
-        <v>0.09485105669321925</v>
+        <v>0.09163433434171964</v>
       </c>
       <c r="F16">
-        <v>9.903678897485349</v>
+        <v>5.458015160744424</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.356713441879151</v>
+        <v>0.7555300479887137</v>
       </c>
       <c r="L16">
-        <v>0.3622553027067994</v>
+        <v>0.2468383481200789</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.661701177593216</v>
+        <v>1.246479115466229</v>
       </c>
       <c r="C17">
-        <v>0.09272824686837566</v>
+        <v>0.03943815943857487</v>
       </c>
       <c r="D17">
-        <v>0.5828304437265217</v>
+        <v>0.3508370993792482</v>
       </c>
       <c r="E17">
-        <v>0.09168489558884474</v>
+        <v>0.09092368210832191</v>
       </c>
       <c r="F17">
-        <v>9.529624941918769</v>
+        <v>5.355612851994181</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.292191105637897</v>
+        <v>0.7451634744682281</v>
       </c>
       <c r="L17">
-        <v>0.3470160005308287</v>
+        <v>0.2437420841302895</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.617812839871931</v>
+        <v>1.239492532319531</v>
       </c>
       <c r="C18">
-        <v>0.09068478521070489</v>
+        <v>0.03897017399987135</v>
       </c>
       <c r="D18">
-        <v>0.571722243839389</v>
+        <v>0.3475465768216708</v>
       </c>
       <c r="E18">
-        <v>0.0898812715881121</v>
+        <v>0.09051780025866663</v>
       </c>
       <c r="F18">
-        <v>9.316234965719019</v>
+        <v>5.296756376690809</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.255557392702485</v>
+        <v>0.739280422529248</v>
       </c>
       <c r="L18">
-        <v>0.3383445539258787</v>
+        <v>0.2419763041687588</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.603044504676944</v>
+        <v>1.237145420554526</v>
       </c>
       <c r="C19">
-        <v>0.08999754250502434</v>
+        <v>0.03881138542246276</v>
       </c>
       <c r="D19">
-        <v>0.5679752413865913</v>
+        <v>0.3464313946495423</v>
       </c>
       <c r="E19">
-        <v>0.08927347360260285</v>
+        <v>0.09038086739766982</v>
       </c>
       <c r="F19">
-        <v>9.244271783070985</v>
+        <v>5.276835756767724</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.243232246866057</v>
+        <v>0.7373021532995665</v>
       </c>
       <c r="L19">
-        <v>0.3354239730273889</v>
+        <v>0.2413810322733241</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.669868338642573</v>
+        <v>1.247780932725789</v>
       </c>
       <c r="C20">
-        <v>0.0931087189356532</v>
+        <v>0.03952461426086984</v>
       </c>
       <c r="D20">
-        <v>0.5848931833050699</v>
+        <v>0.351445597251967</v>
       </c>
       <c r="E20">
-        <v>0.09202010157502727</v>
+        <v>0.09099903544245791</v>
       </c>
       <c r="F20">
-        <v>9.569258374510042</v>
+        <v>5.366509305552313</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.299009281229303</v>
+        <v>0.7462587765672026</v>
       </c>
       <c r="L20">
-        <v>0.3486283769823757</v>
+        <v>0.2440701219826167</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.901355313578392</v>
+        <v>1.284800005839003</v>
       </c>
       <c r="C21">
-        <v>0.1039290191153128</v>
+        <v>0.04189825737320518</v>
       </c>
       <c r="D21">
-        <v>0.6428325526659648</v>
+        <v>0.3682203148378846</v>
       </c>
       <c r="E21">
-        <v>0.1014666593644868</v>
+        <v>0.09311028667217869</v>
       </c>
       <c r="F21">
-        <v>10.68329271251582</v>
+        <v>5.668320535046007</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.492410022527309</v>
+        <v>0.7773040513268654</v>
       </c>
       <c r="L21">
-        <v>0.3941680058975123</v>
+        <v>0.2532859281766804</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.058612132734254</v>
+        <v>1.309956138354266</v>
       </c>
       <c r="C22">
-        <v>0.1113319339260883</v>
+        <v>0.04343349468108215</v>
       </c>
       <c r="D22">
-        <v>0.6816711419472483</v>
+        <v>0.3791319824927086</v>
       </c>
       <c r="E22">
-        <v>0.1078262407148642</v>
+        <v>0.09451576762990754</v>
       </c>
       <c r="F22">
-        <v>11.4306276516063</v>
+        <v>5.865984989641731</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.62397715064759</v>
+        <v>0.7983084318169631</v>
       </c>
       <c r="L22">
-        <v>0.4249365926428794</v>
+        <v>0.2594444852621507</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.97408180396917</v>
+        <v>1.296441541160561</v>
       </c>
       <c r="C23">
-        <v>0.1073465471596506</v>
+        <v>0.04261552578483219</v>
       </c>
       <c r="D23">
-        <v>0.660842725015641</v>
+        <v>0.3733127902926014</v>
       </c>
       <c r="E23">
-        <v>0.1044134348016854</v>
+        <v>0.09376328201951978</v>
       </c>
       <c r="F23">
-        <v>11.02980945413236</v>
+        <v>5.7604482767847</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.553236037982458</v>
+        <v>0.7870323116867155</v>
       </c>
       <c r="L23">
-        <v>0.408413796113507</v>
+        <v>0.2561451029434068</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.666174305194403</v>
+        <v>1.247192056615745</v>
       </c>
       <c r="C24">
-        <v>0.0929366216707237</v>
+        <v>0.03948553472171312</v>
       </c>
       <c r="D24">
-        <v>0.583960367188638</v>
+        <v>0.3511705191425847</v>
       </c>
       <c r="E24">
-        <v>0.09186850342338815</v>
+        <v>0.09096495984909225</v>
       </c>
       <c r="F24">
-        <v>9.551334971441378</v>
+        <v>5.361582969509016</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.295925357606166</v>
+        <v>0.7457633512517248</v>
       </c>
       <c r="L24">
-        <v>0.3478991435787293</v>
+        <v>0.2439217715279369</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.354899986897095</v>
+        <v>1.198172025981307</v>
       </c>
       <c r="C25">
-        <v>0.07846226840022297</v>
+        <v>0.03603481746206683</v>
       </c>
       <c r="D25">
-        <v>0.5042522682314683</v>
+        <v>0.3270499636984141</v>
       </c>
       <c r="E25">
-        <v>0.0789917615226905</v>
+        <v>0.08805602403614188</v>
       </c>
       <c r="F25">
-        <v>8.022167631572813</v>
+        <v>4.932950692271675</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.036265447804908</v>
+        <v>0.7042847942202002</v>
       </c>
       <c r="L25">
-        <v>0.2861387109650622</v>
+        <v>0.2313139945974285</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_127/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_127/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.165568306009135</v>
+        <v>1.139162226358025</v>
       </c>
       <c r="C2">
-        <v>0.03342341788579262</v>
+        <v>0.06839903901508748</v>
       </c>
       <c r="D2">
-        <v>0.3090660498763214</v>
+        <v>0.4474298933270262</v>
       </c>
       <c r="E2">
-        <v>0.08600710581192672</v>
+        <v>0.06993801069853589</v>
       </c>
       <c r="F2">
-        <v>4.618477121752392</v>
+        <v>6.936454089477422</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6763136704454951</v>
+        <v>0.8564354838278803</v>
       </c>
       <c r="L2">
-        <v>0.2225196855929852</v>
+        <v>0.2429257196446173</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.145630774578677</v>
+        <v>0.99948478519633</v>
       </c>
       <c r="C3">
-        <v>0.03160631916440337</v>
+        <v>0.0618171126739071</v>
       </c>
       <c r="D3">
-        <v>0.2967283011830375</v>
+        <v>0.4097053872138758</v>
       </c>
       <c r="E3">
-        <v>0.08467592048555517</v>
+        <v>0.06401161010983003</v>
       </c>
       <c r="F3">
-        <v>4.405935134467342</v>
+        <v>6.218941232599263</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6589400703129229</v>
+        <v>0.7399788302271588</v>
       </c>
       <c r="L3">
-        <v>0.2168610581896928</v>
+        <v>0.2147322958558675</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.134448267733831</v>
+        <v>0.9164131117155989</v>
       </c>
       <c r="C4">
-        <v>0.03046620734694017</v>
+        <v>0.05785589861390861</v>
       </c>
       <c r="D4">
-        <v>0.2890757357962741</v>
+        <v>0.3868202614530958</v>
       </c>
       <c r="E4">
-        <v>0.08388671296325256</v>
+        <v>0.06045964405644</v>
       </c>
       <c r="F4">
-        <v>4.275682007018474</v>
+        <v>5.785456734534563</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6490472067143571</v>
+        <v>0.6706712186431218</v>
       </c>
       <c r="L4">
-        <v>0.2135342625221028</v>
+        <v>0.1978693482171252</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.130157057674609</v>
+        <v>0.8831665899370762</v>
       </c>
       <c r="C5">
-        <v>0.02999531420353563</v>
+        <v>0.05625686133345198</v>
       </c>
       <c r="D5">
-        <v>0.2859374313796224</v>
+        <v>0.3775496167977508</v>
       </c>
       <c r="E5">
-        <v>0.08357216748358098</v>
+        <v>0.05903183328421591</v>
       </c>
       <c r="F5">
-        <v>4.222660805723109</v>
+        <v>5.610325781568974</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6452098223986411</v>
+        <v>0.6429170679722489</v>
       </c>
       <c r="L5">
-        <v>0.2122155782463437</v>
+        <v>0.191098041250612</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.129460539229825</v>
+        <v>0.8776806721880916</v>
       </c>
       <c r="C6">
-        <v>0.02991673854396737</v>
+        <v>0.05599212391073038</v>
       </c>
       <c r="D6">
-        <v>0.2854151087297083</v>
+        <v>0.3760131638671425</v>
       </c>
       <c r="E6">
-        <v>0.08352036362286341</v>
+        <v>0.05879587202061742</v>
       </c>
       <c r="F6">
-        <v>4.213860048901353</v>
+        <v>5.581329870163131</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.644584325718327</v>
+        <v>0.6383363209709501</v>
       </c>
       <c r="L6">
-        <v>0.2119988440226308</v>
+        <v>0.189979404177322</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.134389319739768</v>
+        <v>0.9159623733717694</v>
       </c>
       <c r="C7">
-        <v>0.03045988237587594</v>
+        <v>0.0578342781408594</v>
       </c>
       <c r="D7">
-        <v>0.2890334923379498</v>
+        <v>0.3866950291488394</v>
       </c>
       <c r="E7">
-        <v>0.08388244231321096</v>
+        <v>0.06044031133596306</v>
       </c>
       <c r="F7">
-        <v>4.274966715616387</v>
+        <v>5.783089041445265</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6489946697318487</v>
+        <v>0.6702950149149842</v>
       </c>
       <c r="L7">
-        <v>0.2135163285660582</v>
+        <v>0.1977776364611543</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.158473629041367</v>
+        <v>1.090398290041861</v>
       </c>
       <c r="C8">
-        <v>0.03280185618523035</v>
+        <v>0.06610982356506057</v>
       </c>
       <c r="D8">
-        <v>0.3048277452171249</v>
+        <v>0.4343555955999676</v>
       </c>
       <c r="E8">
-        <v>0.08554226210956983</v>
+        <v>0.06787517369972562</v>
       </c>
       <c r="F8">
-        <v>4.545138293844104</v>
+        <v>6.687423822761417</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6701620266318002</v>
+        <v>0.8157852447384073</v>
       </c>
       <c r="L8">
-        <v>0.2205378824118043</v>
+        <v>0.2331039970169826</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.214139903148236</v>
+        <v>1.457390992941242</v>
       </c>
       <c r="C9">
-        <v>0.03720773664953114</v>
+        <v>0.08322608190814407</v>
       </c>
       <c r="D9">
-        <v>0.3352084593897473</v>
+        <v>0.5307568519795467</v>
       </c>
       <c r="E9">
-        <v>0.08902139005115473</v>
+        <v>0.08325461004016432</v>
       </c>
       <c r="F9">
-        <v>5.077144509861711</v>
+        <v>8.530033960140798</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7178550510727177</v>
+        <v>1.121723485450019</v>
       </c>
       <c r="L9">
-        <v>0.2354845402658015</v>
+        <v>0.3065451606476586</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.260234718278099</v>
+        <v>1.747868994456127</v>
       </c>
       <c r="C10">
-        <v>0.04034064433398754</v>
+        <v>0.09674623753126355</v>
       </c>
       <c r="D10">
-        <v>0.3571981080036437</v>
+        <v>0.6045268705294404</v>
       </c>
       <c r="E10">
-        <v>0.09171581356577363</v>
+        <v>0.09521480047713382</v>
       </c>
       <c r="F10">
-        <v>5.469705866913358</v>
+        <v>9.946610452775502</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7567237436144296</v>
+        <v>1.364143521165062</v>
       </c>
       <c r="L10">
-        <v>0.2471937039239975</v>
+        <v>0.3640074631854588</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.282345237154004</v>
+        <v>1.886024500469716</v>
       </c>
       <c r="C11">
-        <v>0.04174540326101095</v>
+        <v>0.1032098443279352</v>
       </c>
       <c r="D11">
-        <v>0.3671363910969774</v>
+        <v>0.6390248907436273</v>
       </c>
       <c r="E11">
-        <v>0.09297198724315336</v>
+        <v>0.1008442158637557</v>
       </c>
       <c r="F11">
-        <v>5.648740027691247</v>
+        <v>10.61004339688469</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7752508165879419</v>
+        <v>1.479592033551796</v>
       </c>
       <c r="L11">
-        <v>0.2526808745670763</v>
+        <v>0.3911613371028011</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.290882992621363</v>
+        <v>1.939350400181382</v>
       </c>
       <c r="C12">
-        <v>0.0422745836958569</v>
+        <v>0.1057132204711166</v>
       </c>
       <c r="D12">
-        <v>0.3708909178180591</v>
+        <v>0.6522524612862242</v>
       </c>
       <c r="E12">
-        <v>0.09345207302565939</v>
+        <v>0.1030073937672924</v>
       </c>
       <c r="F12">
-        <v>5.716606895914424</v>
+        <v>10.86452295828718</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7823891224853696</v>
+        <v>1.524183702346249</v>
       </c>
       <c r="L12">
-        <v>0.2547819814463139</v>
+        <v>0.4016140866599187</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.289036883633571</v>
+        <v>1.927818291912899</v>
       </c>
       <c r="C13">
-        <v>0.04216073583783242</v>
+        <v>0.1051714051233006</v>
       </c>
       <c r="D13">
-        <v>0.3700827013003334</v>
+        <v>0.6493958749294109</v>
       </c>
       <c r="E13">
-        <v>0.09334848195982204</v>
+        <v>0.1025400413183064</v>
       </c>
       <c r="F13">
-        <v>5.701987335881938</v>
+        <v>10.80956260036913</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7808462972135715</v>
+        <v>1.514538939798456</v>
       </c>
       <c r="L13">
-        <v>0.2543284348853661</v>
+        <v>0.3993549063452093</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.28304433229286</v>
+        <v>1.890390521514746</v>
       </c>
       <c r="C14">
-        <v>0.04178899384586998</v>
+        <v>0.1034146138297132</v>
       </c>
       <c r="D14">
-        <v>0.3674454537594727</v>
+        <v>0.6401096664104955</v>
       </c>
       <c r="E14">
-        <v>0.09301139589445029</v>
+        <v>0.101021524881137</v>
       </c>
       <c r="F14">
-        <v>5.654322033977508</v>
+        <v>10.63091119486768</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7758356287605181</v>
+        <v>1.483242288234067</v>
       </c>
       <c r="L14">
-        <v>0.2528532674357393</v>
+        <v>0.3920177287356097</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.279395231182804</v>
+        <v>1.867601031561009</v>
       </c>
       <c r="C15">
-        <v>0.04156093514963999</v>
+        <v>0.1023461355364219</v>
       </c>
       <c r="D15">
-        <v>0.3658289197511522</v>
+        <v>0.6344438657787634</v>
       </c>
       <c r="E15">
-        <v>0.09280549453926668</v>
+        <v>0.100095622242236</v>
       </c>
       <c r="F15">
-        <v>5.625134991443588</v>
+        <v>10.5219220961169</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7727824312117662</v>
+        <v>1.464190181592954</v>
       </c>
       <c r="L15">
-        <v>0.2519527147599518</v>
+        <v>0.3875464384524889</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.258812786652101</v>
+        <v>1.738973129000215</v>
       </c>
       <c r="C16">
-        <v>0.04024844323768662</v>
+        <v>0.09633100584929366</v>
       </c>
       <c r="D16">
-        <v>0.3565473498900076</v>
+        <v>0.6022936247507573</v>
       </c>
       <c r="E16">
-        <v>0.09163433434171964</v>
+        <v>0.09485105669325833</v>
       </c>
       <c r="F16">
-        <v>5.458015160744424</v>
+        <v>9.903678897485264</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7555300479887137</v>
+        <v>1.356713441879322</v>
       </c>
       <c r="L16">
-        <v>0.2468383481200789</v>
+        <v>0.3622553027069699</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.246479115466229</v>
+        <v>1.66170117759259</v>
       </c>
       <c r="C17">
-        <v>0.03943815943857487</v>
+        <v>0.09272824686827619</v>
       </c>
       <c r="D17">
-        <v>0.3508370993792482</v>
+        <v>0.582830443726607</v>
       </c>
       <c r="E17">
-        <v>0.09092368210832191</v>
+        <v>0.091684895588795</v>
       </c>
       <c r="F17">
-        <v>5.355612851994181</v>
+        <v>9.529624941918883</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7451634744682281</v>
+        <v>1.292191105637897</v>
       </c>
       <c r="L17">
-        <v>0.2437420841302895</v>
+        <v>0.3470160005309282</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.239492532319531</v>
+        <v>1.617812839871846</v>
       </c>
       <c r="C18">
-        <v>0.03897017399987135</v>
+        <v>0.09068478521114187</v>
       </c>
       <c r="D18">
-        <v>0.3475465768216708</v>
+        <v>0.5717222438396163</v>
       </c>
       <c r="E18">
-        <v>0.09051780025866663</v>
+        <v>0.08988127158809434</v>
       </c>
       <c r="F18">
-        <v>5.296756376690809</v>
+        <v>9.316234965719076</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.739280422529248</v>
+        <v>1.2555573927024</v>
       </c>
       <c r="L18">
-        <v>0.2419763041687588</v>
+        <v>0.3383445539258219</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.237145420554526</v>
+        <v>1.603044504677143</v>
       </c>
       <c r="C19">
-        <v>0.03881138542246276</v>
+        <v>0.08999754250502434</v>
       </c>
       <c r="D19">
-        <v>0.3464313946495423</v>
+        <v>0.5679752413868187</v>
       </c>
       <c r="E19">
-        <v>0.09038086739766982</v>
+        <v>0.0892734736025389</v>
       </c>
       <c r="F19">
-        <v>5.276835756767724</v>
+        <v>9.244271783070928</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7373021532995665</v>
+        <v>1.243232246866057</v>
       </c>
       <c r="L19">
-        <v>0.2413810322733241</v>
+        <v>0.3354239730274884</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.247780932725789</v>
+        <v>1.669868338642601</v>
       </c>
       <c r="C20">
-        <v>0.03952461426086984</v>
+        <v>0.09310871893562478</v>
       </c>
       <c r="D20">
-        <v>0.351445597251967</v>
+        <v>0.5848931833050415</v>
       </c>
       <c r="E20">
-        <v>0.09099903544245791</v>
+        <v>0.09202010157502016</v>
       </c>
       <c r="F20">
-        <v>5.366509305552313</v>
+        <v>9.569258374510127</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7462587765672026</v>
+        <v>1.299009281229104</v>
       </c>
       <c r="L20">
-        <v>0.2440701219826167</v>
+        <v>0.3486283769821483</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.284800005839003</v>
+        <v>1.901355313578705</v>
       </c>
       <c r="C21">
-        <v>0.04189825737320518</v>
+        <v>0.1039290191153341</v>
       </c>
       <c r="D21">
-        <v>0.3682203148378846</v>
+        <v>0.6428325526663912</v>
       </c>
       <c r="E21">
-        <v>0.09311028667217869</v>
+        <v>0.1014666593644939</v>
       </c>
       <c r="F21">
-        <v>5.668320535046007</v>
+        <v>10.68329271251582</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7773040513268654</v>
+        <v>1.49241002252748</v>
       </c>
       <c r="L21">
-        <v>0.2532859281766804</v>
+        <v>0.3941680058973986</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.309956138354266</v>
+        <v>2.058612132733856</v>
       </c>
       <c r="C22">
-        <v>0.04343349468108215</v>
+        <v>0.1113319339260457</v>
       </c>
       <c r="D22">
-        <v>0.3791319824927086</v>
+        <v>0.6816711419469357</v>
       </c>
       <c r="E22">
-        <v>0.09451576762990754</v>
+        <v>0.1078262407150348</v>
       </c>
       <c r="F22">
-        <v>5.865984989641731</v>
+        <v>11.43062765160636</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7983084318169631</v>
+        <v>1.62397715064742</v>
       </c>
       <c r="L22">
-        <v>0.2594444852621507</v>
+        <v>0.4249365926427089</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.296441541160561</v>
+        <v>1.974081803969284</v>
       </c>
       <c r="C23">
-        <v>0.04261552578483219</v>
+        <v>0.107346547160617</v>
       </c>
       <c r="D23">
-        <v>0.3733127902926014</v>
+        <v>0.6608427250162947</v>
       </c>
       <c r="E23">
-        <v>0.09376328201951978</v>
+        <v>0.1044134348017849</v>
       </c>
       <c r="F23">
-        <v>5.7604482767847</v>
+        <v>11.02980945413248</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7870323116867155</v>
+        <v>1.553236037982515</v>
       </c>
       <c r="L23">
-        <v>0.2561451029434068</v>
+        <v>0.4084137961134644</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.247192056615745</v>
+        <v>1.666174305194573</v>
       </c>
       <c r="C24">
-        <v>0.03948553472171312</v>
+        <v>0.09293662167068817</v>
       </c>
       <c r="D24">
-        <v>0.3511705191425847</v>
+        <v>0.583960367189519</v>
       </c>
       <c r="E24">
-        <v>0.09096495984909225</v>
+        <v>0.09186850342348762</v>
       </c>
       <c r="F24">
-        <v>5.361582969509016</v>
+        <v>9.551334971441406</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7457633512517248</v>
+        <v>1.295925357606279</v>
       </c>
       <c r="L24">
-        <v>0.2439217715279369</v>
+        <v>0.3478991435786298</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.198172025981307</v>
+        <v>1.354899986896726</v>
       </c>
       <c r="C25">
-        <v>0.03603481746206683</v>
+        <v>0.07846226840016257</v>
       </c>
       <c r="D25">
-        <v>0.3270499636984141</v>
+        <v>0.5042522682316246</v>
       </c>
       <c r="E25">
-        <v>0.08805602403614188</v>
+        <v>0.07899176152262655</v>
       </c>
       <c r="F25">
-        <v>4.932950692271675</v>
+        <v>8.022167631572927</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7042847942202002</v>
+        <v>1.036265447804908</v>
       </c>
       <c r="L25">
-        <v>0.2313139945974285</v>
+        <v>0.2861387109650053</v>
       </c>
       <c r="M25">
         <v>0</v>
